--- a/ERD and Normalization/Nomalization.xlsx
+++ b/ERD and Normalization/Nomalization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group Project Git\Project-Management\ERD and Normalization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group Project Git\Project-Management new\ERD and Normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C8A71-D92B-4C49-897D-6E6195355476}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E3A25-D9D8-4677-9057-EE121A5EF269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" activeTab="2" xr2:uid="{CCC0BC56-688C-48E0-93C4-DD23336690A6}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>User name</t>
   </si>
@@ -468,6 +468,21 @@
   </si>
   <si>
     <t>Schedule ID (PK)</t>
+  </si>
+  <si>
+    <t>Remainder Date</t>
+  </si>
+  <si>
+    <t>Upload Date</t>
+  </si>
+  <si>
+    <t>Upload Time</t>
+  </si>
+  <si>
+    <t>User image</t>
+  </si>
+  <si>
+    <t>User phone number</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F6751-8BB7-4251-A415-EEA974274B9D}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1028,7 @@
     <col min="8" max="8" width="20.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="6" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" style="6" customWidth="1"/>
@@ -1024,12 +1039,12 @@
     <col min="19" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1051,14 +1066,20 @@
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
@@ -1080,10 +1101,12 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>53</v>
       </c>
@@ -1105,10 +1128,12 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>61</v>
       </c>
@@ -1130,10 +1155,11 @@
       <c r="H6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="11"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1143,12 +1169,12 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1161,8 +1187,14 @@
       <c r="E10" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>67</v>
       </c>
@@ -1171,8 +1203,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
@@ -1181,8 +1215,10 @@
         <v>70</v>
       </c>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
@@ -1191,10 +1227,14 @@
         <v>72</v>
       </c>
       <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
@@ -1447,24 +1487,36 @@
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1480,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CBB14-BCB6-41E7-A3AB-B7CDF396A62D}">
   <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:L31"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1662,9 @@
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -1619,7 +1673,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
@@ -1628,7 +1682,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
@@ -1668,30 +1722,44 @@
       <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -2030,24 +2098,36 @@
       <c r="E43" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABF1A03-2908-4161-8CE3-D914C232BDAD}">
   <dimension ref="B2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2269,9 @@
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -2198,7 +2280,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
@@ -2207,7 +2289,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
@@ -2247,30 +2329,44 @@
       <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -2549,24 +2645,36 @@
       <c r="E53" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="15"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E57" s="16"/>
